--- a/Code/Results/Cases/Case_3_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9950915435037054</v>
+        <v>1.026688194879163</v>
       </c>
       <c r="D2">
-        <v>1.018143350093646</v>
+        <v>1.035842992883215</v>
       </c>
       <c r="E2">
-        <v>1.002186901747075</v>
+        <v>1.026877410206643</v>
       </c>
       <c r="F2">
-        <v>1.024467460275495</v>
+        <v>1.046628866459433</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043178260065989</v>
+        <v>1.033561569800667</v>
       </c>
       <c r="J2">
-        <v>1.017420063416795</v>
+        <v>1.0318502428324</v>
       </c>
       <c r="K2">
-        <v>1.02935557608134</v>
+        <v>1.038638437759446</v>
       </c>
       <c r="L2">
-        <v>1.013615853403433</v>
+        <v>1.029698774358945</v>
       </c>
       <c r="M2">
-        <v>1.035596131963233</v>
+        <v>1.049393768197427</v>
       </c>
       <c r="N2">
-        <v>1.018864916606555</v>
+        <v>1.033315588532099</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9994340625831359</v>
+        <v>1.027616856318629</v>
       </c>
       <c r="D3">
-        <v>1.021286234434448</v>
+        <v>1.036535536090016</v>
       </c>
       <c r="E3">
-        <v>1.005637485037747</v>
+        <v>1.027665520847968</v>
       </c>
       <c r="F3">
-        <v>1.028229212694831</v>
+        <v>1.04747817525519</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044128449147538</v>
+        <v>1.033705487522319</v>
       </c>
       <c r="J3">
-        <v>1.019940167521997</v>
+        <v>1.032418877727394</v>
       </c>
       <c r="K3">
-        <v>1.03165380995618</v>
+        <v>1.039140770230073</v>
       </c>
       <c r="L3">
-        <v>1.016198737811088</v>
+        <v>1.030294544744671</v>
       </c>
       <c r="M3">
-        <v>1.038513200186266</v>
+        <v>1.05005466028125</v>
       </c>
       <c r="N3">
-        <v>1.021388599548651</v>
+        <v>1.033885030953868</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002189829653496</v>
+        <v>1.028218386999037</v>
       </c>
       <c r="D4">
-        <v>1.023283258438212</v>
+        <v>1.036984016336785</v>
       </c>
       <c r="E4">
-        <v>1.007833428941233</v>
+        <v>1.028176398268278</v>
       </c>
       <c r="F4">
-        <v>1.030620859177461</v>
+        <v>1.048028420948584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044721390631412</v>
+        <v>1.033797429730266</v>
       </c>
       <c r="J4">
-        <v>1.021537684757269</v>
+        <v>1.032786839761339</v>
       </c>
       <c r="K4">
-        <v>1.033108567362938</v>
+        <v>1.039465495102618</v>
       </c>
       <c r="L4">
-        <v>1.017838221877363</v>
+        <v>1.030680310402235</v>
       </c>
       <c r="M4">
-        <v>1.040363246957096</v>
+        <v>1.05048234280247</v>
       </c>
       <c r="N4">
-        <v>1.022988385441634</v>
+        <v>1.034253515536107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003335836633716</v>
+        <v>1.028471418845127</v>
       </c>
       <c r="D5">
-        <v>1.024114288739624</v>
+        <v>1.037172641652454</v>
       </c>
       <c r="E5">
-        <v>1.008748072856368</v>
+        <v>1.028391389162149</v>
       </c>
       <c r="F5">
-        <v>1.03161645063237</v>
+        <v>1.04825990675641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04496551699847</v>
+        <v>1.033835798607288</v>
       </c>
       <c r="J5">
-        <v>1.022201571775074</v>
+        <v>1.032941534004355</v>
       </c>
       <c r="K5">
-        <v>1.033712603646788</v>
+        <v>1.039601932155528</v>
       </c>
       <c r="L5">
-        <v>1.018520069393742</v>
+        <v>1.030842547904812</v>
       </c>
       <c r="M5">
-        <v>1.041132277995638</v>
+        <v>1.050662148913899</v>
       </c>
       <c r="N5">
-        <v>1.023653215255154</v>
+        <v>1.034408429462692</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00352753468465</v>
+        <v>1.028513912670193</v>
       </c>
       <c r="D6">
-        <v>1.024253329948567</v>
+        <v>1.037204317565054</v>
       </c>
       <c r="E6">
-        <v>1.008901153320113</v>
+        <v>1.028427499819698</v>
       </c>
       <c r="F6">
-        <v>1.031783045519959</v>
+        <v>1.048298783721755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045006207798325</v>
+        <v>1.033842224260809</v>
       </c>
       <c r="J6">
-        <v>1.022312595716552</v>
+        <v>1.032967507992006</v>
       </c>
       <c r="K6">
-        <v>1.033813587323877</v>
+        <v>1.039624835970373</v>
       </c>
       <c r="L6">
-        <v>1.018634127496789</v>
+        <v>1.030869791874101</v>
       </c>
       <c r="M6">
-        <v>1.041260896813341</v>
+        <v>1.050692339599779</v>
       </c>
       <c r="N6">
-        <v>1.023764396863363</v>
+        <v>1.034434440336384</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002205191269267</v>
+        <v>1.028221767441524</v>
       </c>
       <c r="D7">
-        <v>1.023294395852561</v>
+        <v>1.036986536428572</v>
       </c>
       <c r="E7">
-        <v>1.00784568361292</v>
+        <v>1.028179270132361</v>
       </c>
       <c r="F7">
-        <v>1.030634200650512</v>
+        <v>1.048031513436875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044724672757571</v>
+        <v>1.033797943532301</v>
       </c>
       <c r="J7">
-        <v>1.021546585643899</v>
+        <v>1.032788906782989</v>
       </c>
       <c r="K7">
-        <v>1.033116667905845</v>
+        <v>1.039467318486368</v>
       </c>
       <c r="L7">
-        <v>1.017847361510075</v>
+        <v>1.030682477987058</v>
       </c>
       <c r="M7">
-        <v>1.040373556765294</v>
+        <v>1.050484745349454</v>
       </c>
       <c r="N7">
-        <v>1.022997298968545</v>
+        <v>1.034255585493164</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.996570599690105</v>
+        <v>1.027001910309795</v>
       </c>
       <c r="D8">
-        <v>1.019213242428546</v>
+        <v>1.036076965913624</v>
       </c>
       <c r="E8">
-        <v>1.003360839288966</v>
+        <v>1.027143565064206</v>
       </c>
       <c r="F8">
-        <v>1.02574774334237</v>
+        <v>1.046915751234681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043503973179804</v>
+        <v>1.033610451879619</v>
       </c>
       <c r="J8">
-        <v>1.01827875142049</v>
+        <v>1.032042411414565</v>
       </c>
       <c r="K8">
-        <v>1.030139098495299</v>
+        <v>1.038808268459098</v>
       </c>
       <c r="L8">
-        <v>1.014495477515373</v>
+        <v>1.029900062704631</v>
       </c>
       <c r="M8">
-        <v>1.036589883918647</v>
+        <v>1.049617110365978</v>
       </c>
       <c r="N8">
-        <v>1.019724824045712</v>
+        <v>1.033508030015693</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9862061723385405</v>
+        <v>1.024857202767679</v>
       </c>
       <c r="D9">
-        <v>1.011729296874578</v>
+        <v>1.034477002737008</v>
       </c>
       <c r="E9">
-        <v>0.9951626711995371</v>
+        <v>1.02532561252346</v>
       </c>
       <c r="F9">
-        <v>1.016797451574998</v>
+        <v>1.044954967267618</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041180733486914</v>
+        <v>1.033271040539908</v>
       </c>
       <c r="J9">
-        <v>1.012255609073555</v>
+        <v>1.030727172751829</v>
       </c>
       <c r="K9">
-        <v>1.024634898210297</v>
+        <v>1.037644556744857</v>
       </c>
       <c r="L9">
-        <v>1.008334721287214</v>
+        <v>1.028523409290068</v>
       </c>
       <c r="M9">
-        <v>1.029623756118524</v>
+        <v>1.048088606869762</v>
       </c>
       <c r="N9">
-        <v>1.013693128145781</v>
+        <v>1.032190923563195</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9789726199116392</v>
+        <v>1.023430719688471</v>
       </c>
       <c r="D10">
-        <v>1.006525850518658</v>
+        <v>1.033412349253733</v>
       </c>
       <c r="E10">
-        <v>0.9894789701042163</v>
+        <v>1.024118503823213</v>
       </c>
       <c r="F10">
-        <v>1.010580704721614</v>
+        <v>1.043651465828218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039509403598009</v>
+        <v>1.033038733283272</v>
       </c>
       <c r="J10">
-        <v>1.008046083855649</v>
+        <v>1.029850535482342</v>
       </c>
       <c r="K10">
-        <v>1.020778269961654</v>
+        <v>1.036867218747387</v>
       </c>
       <c r="L10">
-        <v>1.004040819305321</v>
+        <v>1.027607097716884</v>
       </c>
       <c r="M10">
-        <v>1.024761513491462</v>
+        <v>1.047069947533065</v>
       </c>
       <c r="N10">
-        <v>1.009477624919226</v>
+        <v>1.031313041368234</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9757560840827697</v>
+        <v>1.022813839180641</v>
       </c>
       <c r="D11">
-        <v>1.004217705591495</v>
+        <v>1.032951834208524</v>
       </c>
       <c r="E11">
-        <v>0.9869613723327071</v>
+        <v>1.023596984248468</v>
       </c>
       <c r="F11">
-        <v>1.007824373847015</v>
+        <v>1.043087931692967</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038755023894428</v>
+        <v>1.032936718312604</v>
       </c>
       <c r="J11">
-        <v>1.006173413859777</v>
+        <v>1.029471000460113</v>
       </c>
       <c r="K11">
-        <v>1.019060518089007</v>
+        <v>1.036530274726925</v>
       </c>
       <c r="L11">
-        <v>1.002133439460593</v>
+        <v>1.027210685186423</v>
       </c>
       <c r="M11">
-        <v>1.022600227185988</v>
+        <v>1.046628956470216</v>
       </c>
       <c r="N11">
-        <v>1.007602295517162</v>
+        <v>1.030932967362741</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9745479579790697</v>
+        <v>1.022584823026023</v>
       </c>
       <c r="D12">
-        <v>1.003351708447835</v>
+        <v>1.032780853177119</v>
       </c>
       <c r="E12">
-        <v>0.9860173019529448</v>
+        <v>1.023403445445777</v>
       </c>
       <c r="F12">
-        <v>1.006790399771587</v>
+        <v>1.042878745561604</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038470055465861</v>
+        <v>1.032898612000219</v>
       </c>
       <c r="J12">
-        <v>1.005469967813873</v>
+        <v>1.02933003357192</v>
       </c>
       <c r="K12">
-        <v>1.018414975501845</v>
+        <v>1.036405067079569</v>
       </c>
       <c r="L12">
-        <v>1.00141738250486</v>
+        <v>1.02706349465339</v>
       </c>
       <c r="M12">
-        <v>1.021788652570481</v>
+        <v>1.046465168510864</v>
       </c>
       <c r="N12">
-        <v>1.006897850497186</v>
+        <v>1.030791800285397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9748077213113125</v>
+        <v>1.022633942286989</v>
       </c>
       <c r="D13">
-        <v>1.003537865598464</v>
+        <v>1.032817525779945</v>
       </c>
       <c r="E13">
-        <v>0.9862202192413174</v>
+        <v>1.02344495215117</v>
       </c>
       <c r="F13">
-        <v>1.007012657884147</v>
+        <v>1.042923610535625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038531399970861</v>
+        <v>1.032906795581361</v>
       </c>
       <c r="J13">
-        <v>1.005621220673598</v>
+        <v>1.029360271008641</v>
       </c>
       <c r="K13">
-        <v>1.01855379086346</v>
+        <v>1.03643192686265</v>
       </c>
       <c r="L13">
-        <v>1.001571327562714</v>
+        <v>1.027095065026701</v>
       </c>
       <c r="M13">
-        <v>1.021963141572109</v>
+        <v>1.046500300847662</v>
       </c>
       <c r="N13">
-        <v>1.007049318153321</v>
+        <v>1.030822080662746</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9756564967102314</v>
+        <v>1.02279490616439</v>
       </c>
       <c r="D14">
-        <v>1.004146300743503</v>
+        <v>1.032937699328762</v>
       </c>
       <c r="E14">
-        <v>0.9868835197864984</v>
+        <v>1.023580982655331</v>
       </c>
       <c r="F14">
-        <v>1.007739115099961</v>
+        <v>1.043070637527117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03873156627391</v>
+        <v>1.032933572783023</v>
       </c>
       <c r="J14">
-        <v>1.006115429114449</v>
+        <v>1.029459347896715</v>
       </c>
       <c r="K14">
-        <v>1.019007312060289</v>
+        <v>1.03651992607027</v>
       </c>
       <c r="L14">
-        <v>1.002074406497058</v>
+        <v>1.027198517247713</v>
       </c>
       <c r="M14">
-        <v>1.022533323484825</v>
+        <v>1.046615417376523</v>
       </c>
       <c r="N14">
-        <v>1.007544228426845</v>
+        <v>1.030921298251366</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9761776633810196</v>
+        <v>1.022894097353895</v>
       </c>
       <c r="D15">
-        <v>1.004520019720371</v>
+        <v>1.033011752172896</v>
       </c>
       <c r="E15">
-        <v>0.9872910054694523</v>
+        <v>1.02366481901073</v>
       </c>
       <c r="F15">
-        <v>1.008185349867284</v>
+        <v>1.043161243721106</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038854260226216</v>
+        <v>1.032950042839471</v>
       </c>
       <c r="J15">
-        <v>1.006418875683843</v>
+        <v>1.029520393705027</v>
       </c>
       <c r="K15">
-        <v>1.019285738905924</v>
+        <v>1.036574138479457</v>
       </c>
       <c r="L15">
-        <v>1.002383356059838</v>
+        <v>1.027262264863186</v>
       </c>
       <c r="M15">
-        <v>1.022883456685707</v>
+        <v>1.046686346600874</v>
       </c>
       <c r="N15">
-        <v>1.007848105925173</v>
+        <v>1.030982430751729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9791842558047312</v>
+        <v>1.02347167688499</v>
       </c>
       <c r="D16">
-        <v>1.006677843132054</v>
+        <v>1.033442922516784</v>
       </c>
       <c r="E16">
-        <v>0.9896448278105474</v>
+        <v>1.024153140067272</v>
       </c>
       <c r="F16">
-        <v>1.010762236312217</v>
+        <v>1.043688884644774</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03955881038668</v>
+        <v>1.033045473720788</v>
       </c>
       <c r="J16">
-        <v>1.008169285433752</v>
+        <v>1.029875725218122</v>
       </c>
       <c r="K16">
-        <v>1.020891238199618</v>
+        <v>1.036889573306449</v>
       </c>
       <c r="L16">
-        <v>1.004166363559079</v>
+        <v>1.027633413921366</v>
       </c>
       <c r="M16">
-        <v>1.024903741415746</v>
+        <v>1.047099216786988</v>
       </c>
       <c r="N16">
-        <v>1.009601001457701</v>
+        <v>1.031338266876328</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9810471552407517</v>
+        <v>1.023834191194914</v>
       </c>
       <c r="D17">
-        <v>1.008016395468007</v>
+        <v>1.033713515782109</v>
       </c>
       <c r="E17">
-        <v>0.9911058908783912</v>
+        <v>1.024459764346626</v>
       </c>
       <c r="F17">
-        <v>1.01236107505615</v>
+        <v>1.044020099518387</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039992439581343</v>
+        <v>1.033104954055828</v>
       </c>
       <c r="J17">
-        <v>1.009253664374991</v>
+        <v>1.030098630709458</v>
       </c>
       <c r="K17">
-        <v>1.021885313166057</v>
+        <v>1.037087343955233</v>
       </c>
       <c r="L17">
-        <v>1.00527168414969</v>
+        <v>1.027866322179902</v>
       </c>
       <c r="M17">
-        <v>1.026155786390651</v>
+        <v>1.047358225853118</v>
       </c>
       <c r="N17">
-        <v>1.010686920341417</v>
+        <v>1.03156148891903</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9821256622465867</v>
+        <v>1.02404571639258</v>
       </c>
       <c r="D18">
-        <v>1.008791869057615</v>
+        <v>1.033871395130744</v>
       </c>
       <c r="E18">
-        <v>0.9919526816336065</v>
+        <v>1.024638725544083</v>
       </c>
       <c r="F18">
-        <v>1.013287466432077</v>
+        <v>1.044213377362984</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040242418230262</v>
+        <v>1.033139510455822</v>
       </c>
       <c r="J18">
-        <v>1.009881372970536</v>
+        <v>1.030228652915278</v>
       </c>
       <c r="K18">
-        <v>1.022460549657606</v>
+        <v>1.037202666231269</v>
       </c>
       <c r="L18">
-        <v>1.005911783273866</v>
+        <v>1.028002207937411</v>
       </c>
       <c r="M18">
-        <v>1.026880715935699</v>
+        <v>1.04750931054211</v>
       </c>
       <c r="N18">
-        <v>1.011315520355166</v>
+        <v>1.031691695771295</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9824920530654804</v>
+        <v>1.024117853999769</v>
       </c>
       <c r="D19">
-        <v>1.009055400960702</v>
+        <v>1.033925235810669</v>
       </c>
       <c r="E19">
-        <v>0.9922405082864638</v>
+        <v>1.024699765713041</v>
       </c>
       <c r="F19">
-        <v>1.013602306768305</v>
+        <v>1.0442792946157</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04032715848355</v>
+        <v>1.033151269959471</v>
       </c>
       <c r="J19">
-        <v>1.010094603054943</v>
+        <v>1.030272987976631</v>
       </c>
       <c r="K19">
-        <v>1.022655920899645</v>
+        <v>1.037241982344796</v>
       </c>
       <c r="L19">
-        <v>1.006129267778558</v>
+        <v>1.028048547252877</v>
       </c>
       <c r="M19">
-        <v>1.0271269989107</v>
+        <v>1.047560828012834</v>
       </c>
       <c r="N19">
-        <v>1.011529053250751</v>
+        <v>1.031736093793521</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9808481254439441</v>
+        <v>1.023795288895121</v>
       </c>
       <c r="D20">
-        <v>1.00787333043999</v>
+        <v>1.033684478825516</v>
       </c>
       <c r="E20">
-        <v>0.9909496965562453</v>
+        <v>1.024426854821678</v>
       </c>
       <c r="F20">
-        <v>1.012190177749243</v>
+        <v>1.043984554408495</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039946221439815</v>
+        <v>1.033098586594028</v>
       </c>
       <c r="J20">
-        <v>1.009137818845046</v>
+        <v>1.030074714513571</v>
       </c>
       <c r="K20">
-        <v>1.021779135341798</v>
+        <v>1.037066128544291</v>
       </c>
       <c r="L20">
-        <v>1.005153573561565</v>
+        <v>1.027841329770514</v>
       </c>
       <c r="M20">
-        <v>1.026022011614674</v>
+        <v>1.047330435681526</v>
       </c>
       <c r="N20">
-        <v>1.010570910297531</v>
+        <v>1.031537538759401</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9754069281057248</v>
+        <v>1.022747502972496</v>
       </c>
       <c r="D21">
-        <v>1.003967373723033</v>
+        <v>1.032902309137246</v>
       </c>
       <c r="E21">
-        <v>0.9866884442133805</v>
+        <v>1.023540920169739</v>
       </c>
       <c r="F21">
-        <v>1.007525475660725</v>
+        <v>1.043027337987219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038672754877681</v>
+        <v>1.032925693450961</v>
       </c>
       <c r="J21">
-        <v>1.00597011678276</v>
+        <v>1.029430171956548</v>
       </c>
       <c r="K21">
-        <v>1.018873970812138</v>
+        <v>1.036494013912879</v>
       </c>
       <c r="L21">
-        <v>1.00192647418062</v>
+        <v>1.027168051626766</v>
       </c>
       <c r="M21">
-        <v>1.022365664555768</v>
+        <v>1.046581517981287</v>
       </c>
       <c r="N21">
-        <v>1.007398709734977</v>
+        <v>1.030892080878018</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.971908151145878</v>
+        <v>1.022089417461721</v>
       </c>
       <c r="D22">
-        <v>1.001461293523371</v>
+        <v>1.032410961345865</v>
       </c>
       <c r="E22">
-        <v>0.9839573692233765</v>
+        <v>1.022984921494965</v>
       </c>
       <c r="F22">
-        <v>1.004533613286652</v>
+        <v>1.042426283071127</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037844465649213</v>
+        <v>1.032815754237666</v>
       </c>
       <c r="J22">
-        <v>1.003932829445682</v>
+        <v>1.029024976924549</v>
       </c>
       <c r="K22">
-        <v>1.017003857380529</v>
+        <v>1.036134004572299</v>
       </c>
       <c r="L22">
-        <v>0.9998534765199549</v>
+        <v>1.026745052177762</v>
       </c>
       <c r="M22">
-        <v>1.020015790256688</v>
+        <v>1.046110735584374</v>
       </c>
       <c r="N22">
-        <v>1.0053585292162</v>
+        <v>1.030486310422596</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9737705240216386</v>
+        <v>1.022438214398174</v>
       </c>
       <c r="D23">
-        <v>1.00279471160892</v>
+        <v>1.03267139249632</v>
       </c>
       <c r="E23">
-        <v>0.9854102304098759</v>
+        <v>1.023279569372081</v>
       </c>
       <c r="F23">
-        <v>1.006125410997188</v>
+        <v>1.042744838661869</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038286226707269</v>
+        <v>1.032874151907544</v>
       </c>
       <c r="J23">
-        <v>1.005017283081065</v>
+        <v>1.029239772948323</v>
       </c>
       <c r="K23">
-        <v>1.017999474233973</v>
+        <v>1.036324880204213</v>
       </c>
       <c r="L23">
-        <v>1.000956703161037</v>
+        <v>1.02696926172345</v>
       </c>
       <c r="M23">
-        <v>1.021266468241856</v>
+        <v>1.046360297042895</v>
       </c>
       <c r="N23">
-        <v>1.006444522900134</v>
+        <v>1.030701411481362</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9809380833947499</v>
+        <v>1.023812866932866</v>
       </c>
       <c r="D24">
-        <v>1.007937991661429</v>
+        <v>1.033697599231669</v>
       </c>
       <c r="E24">
-        <v>0.9910202907736487</v>
+        <v>1.024441724872175</v>
       </c>
       <c r="F24">
-        <v>1.012267417963454</v>
+        <v>1.044000615448684</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039967114533902</v>
+        <v>1.033101464200762</v>
       </c>
       <c r="J24">
-        <v>1.009190179234513</v>
+        <v>1.030085521197066</v>
       </c>
       <c r="K24">
-        <v>1.021827126694192</v>
+        <v>1.037075714980462</v>
       </c>
       <c r="L24">
-        <v>1.005206956891219</v>
+        <v>1.027852622658644</v>
       </c>
       <c r="M24">
-        <v>1.026082475236453</v>
+        <v>1.047342992835951</v>
       </c>
       <c r="N24">
-        <v>1.010623345044757</v>
+        <v>1.031548360789626</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9889403238343371</v>
+        <v>1.025411080710571</v>
       </c>
       <c r="D25">
-        <v>1.013700473705165</v>
+        <v>1.03489028801796</v>
       </c>
       <c r="E25">
-        <v>0.9973190477960469</v>
+        <v>1.025794746968067</v>
       </c>
       <c r="F25">
-        <v>1.019153710856199</v>
+        <v>1.045461234466607</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041802420833476</v>
+        <v>1.033359852530398</v>
       </c>
       <c r="J25">
-        <v>1.013845710058449</v>
+        <v>1.031067165114503</v>
       </c>
       <c r="K25">
-        <v>1.026089766188887</v>
+        <v>1.037945679014957</v>
       </c>
       <c r="L25">
-        <v>1.009959125148958</v>
+        <v>1.028879055510103</v>
       </c>
       <c r="M25">
-        <v>1.031461792236199</v>
+        <v>1.048483707603579</v>
       </c>
       <c r="N25">
-        <v>1.01528548725646</v>
+        <v>1.032531398754022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026688194879163</v>
+        <v>0.9950915435037059</v>
       </c>
       <c r="D2">
-        <v>1.035842992883215</v>
+        <v>1.018143350093646</v>
       </c>
       <c r="E2">
-        <v>1.026877410206643</v>
+        <v>1.002186901747075</v>
       </c>
       <c r="F2">
-        <v>1.046628866459433</v>
+        <v>1.024467460275496</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033561569800667</v>
+        <v>1.04317826006599</v>
       </c>
       <c r="J2">
-        <v>1.0318502428324</v>
+        <v>1.017420063416796</v>
       </c>
       <c r="K2">
-        <v>1.038638437759446</v>
+        <v>1.02935557608134</v>
       </c>
       <c r="L2">
-        <v>1.029698774358945</v>
+        <v>1.013615853403433</v>
       </c>
       <c r="M2">
-        <v>1.049393768197427</v>
+        <v>1.035596131963233</v>
       </c>
       <c r="N2">
-        <v>1.033315588532099</v>
+        <v>1.018864916606556</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027616856318629</v>
+        <v>0.9994340625831355</v>
       </c>
       <c r="D3">
-        <v>1.036535536090016</v>
+        <v>1.021286234434448</v>
       </c>
       <c r="E3">
-        <v>1.027665520847968</v>
+        <v>1.005637485037746</v>
       </c>
       <c r="F3">
-        <v>1.04747817525519</v>
+        <v>1.028229212694831</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033705487522319</v>
+        <v>1.044128449147538</v>
       </c>
       <c r="J3">
-        <v>1.032418877727394</v>
+        <v>1.019940167521997</v>
       </c>
       <c r="K3">
-        <v>1.039140770230073</v>
+        <v>1.031653809956179</v>
       </c>
       <c r="L3">
-        <v>1.030294544744671</v>
+        <v>1.016198737811087</v>
       </c>
       <c r="M3">
-        <v>1.05005466028125</v>
+        <v>1.038513200186266</v>
       </c>
       <c r="N3">
-        <v>1.033885030953868</v>
+        <v>1.02138859954865</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028218386999037</v>
+        <v>1.002189829653495</v>
       </c>
       <c r="D4">
-        <v>1.036984016336785</v>
+        <v>1.023283258438211</v>
       </c>
       <c r="E4">
-        <v>1.028176398268278</v>
+        <v>1.007833428941231</v>
       </c>
       <c r="F4">
-        <v>1.048028420948584</v>
+        <v>1.03062085917746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033797429730266</v>
+        <v>1.044721390631412</v>
       </c>
       <c r="J4">
-        <v>1.032786839761339</v>
+        <v>1.021537684757267</v>
       </c>
       <c r="K4">
-        <v>1.039465495102618</v>
+        <v>1.033108567362937</v>
       </c>
       <c r="L4">
-        <v>1.030680310402235</v>
+        <v>1.017838221877361</v>
       </c>
       <c r="M4">
-        <v>1.05048234280247</v>
+        <v>1.040363246957095</v>
       </c>
       <c r="N4">
-        <v>1.034253515536107</v>
+        <v>1.022988385441633</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028471418845127</v>
+        <v>1.003335836633714</v>
       </c>
       <c r="D5">
-        <v>1.037172641652454</v>
+        <v>1.024114288739623</v>
       </c>
       <c r="E5">
-        <v>1.028391389162149</v>
+        <v>1.008748072856367</v>
       </c>
       <c r="F5">
-        <v>1.04825990675641</v>
+        <v>1.031616450632369</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033835798607288</v>
+        <v>1.04496551699847</v>
       </c>
       <c r="J5">
-        <v>1.032941534004355</v>
+        <v>1.022201571775073</v>
       </c>
       <c r="K5">
-        <v>1.039601932155528</v>
+        <v>1.033712603646787</v>
       </c>
       <c r="L5">
-        <v>1.030842547904812</v>
+        <v>1.01852006939374</v>
       </c>
       <c r="M5">
-        <v>1.050662148913899</v>
+        <v>1.041132277995637</v>
       </c>
       <c r="N5">
-        <v>1.034408429462692</v>
+        <v>1.023653215255153</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028513912670193</v>
+        <v>1.00352753468465</v>
       </c>
       <c r="D6">
-        <v>1.037204317565054</v>
+        <v>1.024253329948567</v>
       </c>
       <c r="E6">
-        <v>1.028427499819698</v>
+        <v>1.008901153320113</v>
       </c>
       <c r="F6">
-        <v>1.048298783721755</v>
+        <v>1.031783045519959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033842224260809</v>
+        <v>1.045006207798325</v>
       </c>
       <c r="J6">
-        <v>1.032967507992006</v>
+        <v>1.022312595716552</v>
       </c>
       <c r="K6">
-        <v>1.039624835970373</v>
+        <v>1.033813587323877</v>
       </c>
       <c r="L6">
-        <v>1.030869791874101</v>
+        <v>1.018634127496789</v>
       </c>
       <c r="M6">
-        <v>1.050692339599779</v>
+        <v>1.041260896813342</v>
       </c>
       <c r="N6">
-        <v>1.034434440336384</v>
+        <v>1.023764396863363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028221767441524</v>
+        <v>1.002205191269268</v>
       </c>
       <c r="D7">
-        <v>1.036986536428572</v>
+        <v>1.023294395852561</v>
       </c>
       <c r="E7">
-        <v>1.028179270132361</v>
+        <v>1.00784568361292</v>
       </c>
       <c r="F7">
-        <v>1.048031513436875</v>
+        <v>1.030634200650512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033797943532301</v>
+        <v>1.044724672757571</v>
       </c>
       <c r="J7">
-        <v>1.032788906782989</v>
+        <v>1.021546585643899</v>
       </c>
       <c r="K7">
-        <v>1.039467318486368</v>
+        <v>1.033116667905845</v>
       </c>
       <c r="L7">
-        <v>1.030682477987058</v>
+        <v>1.017847361510075</v>
       </c>
       <c r="M7">
-        <v>1.050484745349454</v>
+        <v>1.040373556765294</v>
       </c>
       <c r="N7">
-        <v>1.034255585493164</v>
+        <v>1.022997298968545</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027001910309795</v>
+        <v>0.9965705996901045</v>
       </c>
       <c r="D8">
-        <v>1.036076965913624</v>
+        <v>1.019213242428545</v>
       </c>
       <c r="E8">
-        <v>1.027143565064206</v>
+        <v>1.003360839288965</v>
       </c>
       <c r="F8">
-        <v>1.046915751234681</v>
+        <v>1.025747743342369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033610451879619</v>
+        <v>1.043503973179804</v>
       </c>
       <c r="J8">
-        <v>1.032042411414565</v>
+        <v>1.018278751420489</v>
       </c>
       <c r="K8">
-        <v>1.038808268459098</v>
+        <v>1.030139098495298</v>
       </c>
       <c r="L8">
-        <v>1.029900062704631</v>
+        <v>1.014495477515373</v>
       </c>
       <c r="M8">
-        <v>1.049617110365978</v>
+        <v>1.036589883918646</v>
       </c>
       <c r="N8">
-        <v>1.033508030015693</v>
+        <v>1.019724824045712</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024857202767679</v>
+        <v>0.9862061723385415</v>
       </c>
       <c r="D9">
-        <v>1.034477002737008</v>
+        <v>1.011729296874579</v>
       </c>
       <c r="E9">
-        <v>1.02532561252346</v>
+        <v>0.9951626711995378</v>
       </c>
       <c r="F9">
-        <v>1.044954967267618</v>
+        <v>1.016797451574999</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033271040539908</v>
+        <v>1.041180733486915</v>
       </c>
       <c r="J9">
-        <v>1.030727172751829</v>
+        <v>1.012255609073556</v>
       </c>
       <c r="K9">
-        <v>1.037644556744857</v>
+        <v>1.024634898210298</v>
       </c>
       <c r="L9">
-        <v>1.028523409290068</v>
+        <v>1.008334721287215</v>
       </c>
       <c r="M9">
-        <v>1.048088606869762</v>
+        <v>1.029623756118524</v>
       </c>
       <c r="N9">
-        <v>1.032190923563195</v>
+        <v>1.013693128145782</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023430719688471</v>
+        <v>0.9789726199116386</v>
       </c>
       <c r="D10">
-        <v>1.033412349253733</v>
+        <v>1.006525850518657</v>
       </c>
       <c r="E10">
-        <v>1.024118503823213</v>
+        <v>0.9894789701042159</v>
       </c>
       <c r="F10">
-        <v>1.043651465828218</v>
+        <v>1.010580704721612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033038733283272</v>
+        <v>1.039509403598009</v>
       </c>
       <c r="J10">
-        <v>1.029850535482342</v>
+        <v>1.008046083855648</v>
       </c>
       <c r="K10">
-        <v>1.036867218747387</v>
+        <v>1.020778269961653</v>
       </c>
       <c r="L10">
-        <v>1.027607097716884</v>
+        <v>1.004040819305321</v>
       </c>
       <c r="M10">
-        <v>1.047069947533065</v>
+        <v>1.024761513491462</v>
       </c>
       <c r="N10">
-        <v>1.031313041368234</v>
+        <v>1.009477624919225</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022813839180641</v>
+        <v>0.9757560840827701</v>
       </c>
       <c r="D11">
-        <v>1.032951834208524</v>
+        <v>1.004217705591496</v>
       </c>
       <c r="E11">
-        <v>1.023596984248468</v>
+        <v>0.9869613723327075</v>
       </c>
       <c r="F11">
-        <v>1.043087931692967</v>
+        <v>1.007824373847016</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032936718312604</v>
+        <v>1.038755023894428</v>
       </c>
       <c r="J11">
-        <v>1.029471000460113</v>
+        <v>1.006173413859778</v>
       </c>
       <c r="K11">
-        <v>1.036530274726925</v>
+        <v>1.019060518089008</v>
       </c>
       <c r="L11">
-        <v>1.027210685186423</v>
+        <v>1.002133439460593</v>
       </c>
       <c r="M11">
-        <v>1.046628956470216</v>
+        <v>1.022600227185989</v>
       </c>
       <c r="N11">
-        <v>1.030932967362741</v>
+        <v>1.007602295517162</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022584823026023</v>
+        <v>0.97454795797907</v>
       </c>
       <c r="D12">
-        <v>1.032780853177119</v>
+        <v>1.003351708447836</v>
       </c>
       <c r="E12">
-        <v>1.023403445445777</v>
+        <v>0.986017301952945</v>
       </c>
       <c r="F12">
-        <v>1.042878745561604</v>
+        <v>1.006790399771587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032898612000219</v>
+        <v>1.038470055465861</v>
       </c>
       <c r="J12">
-        <v>1.02933003357192</v>
+        <v>1.005469967813873</v>
       </c>
       <c r="K12">
-        <v>1.036405067079569</v>
+        <v>1.018414975501846</v>
       </c>
       <c r="L12">
-        <v>1.02706349465339</v>
+        <v>1.00141738250486</v>
       </c>
       <c r="M12">
-        <v>1.046465168510864</v>
+        <v>1.021788652570481</v>
       </c>
       <c r="N12">
-        <v>1.030791800285397</v>
+        <v>1.006897850497186</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022633942286989</v>
+        <v>0.9748077213113122</v>
       </c>
       <c r="D13">
-        <v>1.032817525779945</v>
+        <v>1.003537865598464</v>
       </c>
       <c r="E13">
-        <v>1.02344495215117</v>
+        <v>0.9862202192413172</v>
       </c>
       <c r="F13">
-        <v>1.042923610535625</v>
+        <v>1.007012657884146</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032906795581361</v>
+        <v>1.038531399970861</v>
       </c>
       <c r="J13">
-        <v>1.029360271008641</v>
+        <v>1.005621220673598</v>
       </c>
       <c r="K13">
-        <v>1.03643192686265</v>
+        <v>1.01855379086346</v>
       </c>
       <c r="L13">
-        <v>1.027095065026701</v>
+        <v>1.001571327562714</v>
       </c>
       <c r="M13">
-        <v>1.046500300847662</v>
+        <v>1.021963141572108</v>
       </c>
       <c r="N13">
-        <v>1.030822080662746</v>
+        <v>1.007049318153321</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02279490616439</v>
+        <v>0.9756564967102311</v>
       </c>
       <c r="D14">
-        <v>1.032937699328762</v>
+        <v>1.004146300743503</v>
       </c>
       <c r="E14">
-        <v>1.023580982655331</v>
+        <v>0.9868835197864976</v>
       </c>
       <c r="F14">
-        <v>1.043070637527117</v>
+        <v>1.00773911509996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032933572783023</v>
+        <v>1.03873156627391</v>
       </c>
       <c r="J14">
-        <v>1.029459347896715</v>
+        <v>1.006115429114449</v>
       </c>
       <c r="K14">
-        <v>1.03651992607027</v>
+        <v>1.019007312060289</v>
       </c>
       <c r="L14">
-        <v>1.027198517247713</v>
+        <v>1.002074406497057</v>
       </c>
       <c r="M14">
-        <v>1.046615417376523</v>
+        <v>1.022533323484825</v>
       </c>
       <c r="N14">
-        <v>1.030921298251366</v>
+        <v>1.007544228426845</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022894097353895</v>
+        <v>0.9761776633810194</v>
       </c>
       <c r="D15">
-        <v>1.033011752172896</v>
+        <v>1.004520019720371</v>
       </c>
       <c r="E15">
-        <v>1.02366481901073</v>
+        <v>0.9872910054694518</v>
       </c>
       <c r="F15">
-        <v>1.043161243721106</v>
+        <v>1.008185349867284</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032950042839471</v>
+        <v>1.038854260226216</v>
       </c>
       <c r="J15">
-        <v>1.029520393705027</v>
+        <v>1.006418875683843</v>
       </c>
       <c r="K15">
-        <v>1.036574138479457</v>
+        <v>1.019285738905923</v>
       </c>
       <c r="L15">
-        <v>1.027262264863186</v>
+        <v>1.002383356059837</v>
       </c>
       <c r="M15">
-        <v>1.046686346600874</v>
+        <v>1.022883456685707</v>
       </c>
       <c r="N15">
-        <v>1.030982430751729</v>
+        <v>1.007848105925172</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02347167688499</v>
+        <v>0.9791842558047307</v>
       </c>
       <c r="D16">
-        <v>1.033442922516784</v>
+        <v>1.006677843132054</v>
       </c>
       <c r="E16">
-        <v>1.024153140067272</v>
+        <v>0.9896448278105473</v>
       </c>
       <c r="F16">
-        <v>1.043688884644774</v>
+        <v>1.010762236312216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033045473720788</v>
+        <v>1.039558810386679</v>
       </c>
       <c r="J16">
-        <v>1.029875725218122</v>
+        <v>1.008169285433752</v>
       </c>
       <c r="K16">
-        <v>1.036889573306449</v>
+        <v>1.020891238199617</v>
       </c>
       <c r="L16">
-        <v>1.027633413921366</v>
+        <v>1.004166363559079</v>
       </c>
       <c r="M16">
-        <v>1.047099216786988</v>
+        <v>1.024903741415746</v>
       </c>
       <c r="N16">
-        <v>1.031338266876328</v>
+        <v>1.009601001457701</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023834191194914</v>
+        <v>0.9810471552407519</v>
       </c>
       <c r="D17">
-        <v>1.033713515782109</v>
+        <v>1.008016395468007</v>
       </c>
       <c r="E17">
-        <v>1.024459764346626</v>
+        <v>0.9911058908783913</v>
       </c>
       <c r="F17">
-        <v>1.044020099518387</v>
+        <v>1.01236107505615</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033104954055828</v>
+        <v>1.039992439581343</v>
       </c>
       <c r="J17">
-        <v>1.030098630709458</v>
+        <v>1.009253664374991</v>
       </c>
       <c r="K17">
-        <v>1.037087343955233</v>
+        <v>1.021885313166057</v>
       </c>
       <c r="L17">
-        <v>1.027866322179902</v>
+        <v>1.00527168414969</v>
       </c>
       <c r="M17">
-        <v>1.047358225853118</v>
+        <v>1.026155786390651</v>
       </c>
       <c r="N17">
-        <v>1.03156148891903</v>
+        <v>1.010686920341417</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02404571639258</v>
+        <v>0.9821256622465875</v>
       </c>
       <c r="D18">
-        <v>1.033871395130744</v>
+        <v>1.008791869057616</v>
       </c>
       <c r="E18">
-        <v>1.024638725544083</v>
+        <v>0.9919526816336071</v>
       </c>
       <c r="F18">
-        <v>1.044213377362984</v>
+        <v>1.013287466432078</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033139510455822</v>
+        <v>1.040242418230262</v>
       </c>
       <c r="J18">
-        <v>1.030228652915278</v>
+        <v>1.009881372970536</v>
       </c>
       <c r="K18">
-        <v>1.037202666231269</v>
+        <v>1.022460549657607</v>
       </c>
       <c r="L18">
-        <v>1.028002207937411</v>
+        <v>1.005911783273866</v>
       </c>
       <c r="M18">
-        <v>1.04750931054211</v>
+        <v>1.0268807159357</v>
       </c>
       <c r="N18">
-        <v>1.031691695771295</v>
+        <v>1.011315520355167</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024117853999769</v>
+        <v>0.9824920530654813</v>
       </c>
       <c r="D19">
-        <v>1.033925235810669</v>
+        <v>1.009055400960702</v>
       </c>
       <c r="E19">
-        <v>1.024699765713041</v>
+        <v>0.9922405082864645</v>
       </c>
       <c r="F19">
-        <v>1.0442792946157</v>
+        <v>1.013602306768305</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033151269959471</v>
+        <v>1.04032715848355</v>
       </c>
       <c r="J19">
-        <v>1.030272987976631</v>
+        <v>1.010094603054943</v>
       </c>
       <c r="K19">
-        <v>1.037241982344796</v>
+        <v>1.022655920899645</v>
       </c>
       <c r="L19">
-        <v>1.028048547252877</v>
+        <v>1.006129267778558</v>
       </c>
       <c r="M19">
-        <v>1.047560828012834</v>
+        <v>1.0271269989107</v>
       </c>
       <c r="N19">
-        <v>1.031736093793521</v>
+        <v>1.011529053250752</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023795288895121</v>
+        <v>0.9808481254439431</v>
       </c>
       <c r="D20">
-        <v>1.033684478825516</v>
+        <v>1.007873330439989</v>
       </c>
       <c r="E20">
-        <v>1.024426854821678</v>
+        <v>0.9909496965562447</v>
       </c>
       <c r="F20">
-        <v>1.043984554408495</v>
+        <v>1.012190177749242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033098586594028</v>
+        <v>1.039946221439815</v>
       </c>
       <c r="J20">
-        <v>1.030074714513571</v>
+        <v>1.009137818845045</v>
       </c>
       <c r="K20">
-        <v>1.037066128544291</v>
+        <v>1.021779135341797</v>
       </c>
       <c r="L20">
-        <v>1.027841329770514</v>
+        <v>1.005153573561564</v>
       </c>
       <c r="M20">
-        <v>1.047330435681526</v>
+        <v>1.026022011614673</v>
       </c>
       <c r="N20">
-        <v>1.031537538759401</v>
+        <v>1.01057091029753</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022747502972496</v>
+        <v>0.9754069281057249</v>
       </c>
       <c r="D21">
-        <v>1.032902309137246</v>
+        <v>1.003967373723033</v>
       </c>
       <c r="E21">
-        <v>1.023540920169739</v>
+        <v>0.9866884442133805</v>
       </c>
       <c r="F21">
-        <v>1.043027337987219</v>
+        <v>1.007525475660725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032925693450961</v>
+        <v>1.03867275487768</v>
       </c>
       <c r="J21">
-        <v>1.029430171956548</v>
+        <v>1.00597011678276</v>
       </c>
       <c r="K21">
-        <v>1.036494013912879</v>
+        <v>1.018873970812138</v>
       </c>
       <c r="L21">
-        <v>1.027168051626766</v>
+        <v>1.00192647418062</v>
       </c>
       <c r="M21">
-        <v>1.046581517981287</v>
+        <v>1.022365664555768</v>
       </c>
       <c r="N21">
-        <v>1.030892080878018</v>
+        <v>1.007398709734977</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022089417461721</v>
+        <v>0.9719081511458785</v>
       </c>
       <c r="D22">
-        <v>1.032410961345865</v>
+        <v>1.001461293523371</v>
       </c>
       <c r="E22">
-        <v>1.022984921494965</v>
+        <v>0.983957369223377</v>
       </c>
       <c r="F22">
-        <v>1.042426283071127</v>
+        <v>1.004533613286652</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032815754237666</v>
+        <v>1.037844465649213</v>
       </c>
       <c r="J22">
-        <v>1.029024976924549</v>
+        <v>1.003932829445682</v>
       </c>
       <c r="K22">
-        <v>1.036134004572299</v>
+        <v>1.017003857380529</v>
       </c>
       <c r="L22">
-        <v>1.026745052177762</v>
+        <v>0.9998534765199554</v>
       </c>
       <c r="M22">
-        <v>1.046110735584374</v>
+        <v>1.020015790256689</v>
       </c>
       <c r="N22">
-        <v>1.030486310422596</v>
+        <v>1.0053585292162</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022438214398174</v>
+        <v>0.9737705240216383</v>
       </c>
       <c r="D23">
-        <v>1.03267139249632</v>
+        <v>1.00279471160892</v>
       </c>
       <c r="E23">
-        <v>1.023279569372081</v>
+        <v>0.9854102304098756</v>
       </c>
       <c r="F23">
-        <v>1.042744838661869</v>
+        <v>1.006125410997188</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032874151907544</v>
+        <v>1.038286226707269</v>
       </c>
       <c r="J23">
-        <v>1.029239772948323</v>
+        <v>1.005017283081065</v>
       </c>
       <c r="K23">
-        <v>1.036324880204213</v>
+        <v>1.017999474233973</v>
       </c>
       <c r="L23">
-        <v>1.02696926172345</v>
+        <v>1.000956703161036</v>
       </c>
       <c r="M23">
-        <v>1.046360297042895</v>
+        <v>1.021266468241856</v>
       </c>
       <c r="N23">
-        <v>1.030701411481362</v>
+        <v>1.006444522900134</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023812866932866</v>
+        <v>0.9809380833947492</v>
       </c>
       <c r="D24">
-        <v>1.033697599231669</v>
+        <v>1.007937991661429</v>
       </c>
       <c r="E24">
-        <v>1.024441724872175</v>
+        <v>0.9910202907736482</v>
       </c>
       <c r="F24">
-        <v>1.044000615448684</v>
+        <v>1.012267417963453</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033101464200762</v>
+        <v>1.039967114533902</v>
       </c>
       <c r="J24">
-        <v>1.030085521197066</v>
+        <v>1.009190179234512</v>
       </c>
       <c r="K24">
-        <v>1.037075714980462</v>
+        <v>1.021827126694192</v>
       </c>
       <c r="L24">
-        <v>1.027852622658644</v>
+        <v>1.005206956891219</v>
       </c>
       <c r="M24">
-        <v>1.047342992835951</v>
+        <v>1.026082475236452</v>
       </c>
       <c r="N24">
-        <v>1.031548360789626</v>
+        <v>1.010623345044757</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025411080710571</v>
+        <v>0.9889403238343383</v>
       </c>
       <c r="D25">
-        <v>1.03489028801796</v>
+        <v>1.013700473705166</v>
       </c>
       <c r="E25">
-        <v>1.025794746968067</v>
+        <v>0.9973190477960481</v>
       </c>
       <c r="F25">
-        <v>1.045461234466607</v>
+        <v>1.019153710856201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033359852530398</v>
+        <v>1.041802420833476</v>
       </c>
       <c r="J25">
-        <v>1.031067165114503</v>
+        <v>1.01384571005845</v>
       </c>
       <c r="K25">
-        <v>1.037945679014957</v>
+        <v>1.026089766188889</v>
       </c>
       <c r="L25">
-        <v>1.028879055510103</v>
+        <v>1.009959125148959</v>
       </c>
       <c r="M25">
-        <v>1.048483707603579</v>
+        <v>1.0314617922362</v>
       </c>
       <c r="N25">
-        <v>1.032531398754022</v>
+        <v>1.015285487256461</v>
       </c>
     </row>
   </sheetData>
